--- a/170514_importance_codes_data/group_top30_keywords.xlsx
+++ b/170514_importance_codes_data/group_top30_keywords.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DW\Dropbox\study\17\비즈니스모델링\BA562\170511\search_csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DW\Dropbox\study\17\비즈니스모델링\BA562\170514_importance_codes_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1196,18 +1196,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB104"/>
+  <dimension ref="A1:Z104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="22" max="22" width="12.75" customWidth="1"/>
+    <col min="20" max="20" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
@@ -1226,23 +1226,23 @@
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="T1" s="1">
+        <v>20</v>
+      </c>
       <c r="V1" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X1" s="1">
-        <v>30</v>
-      </c>
-      <c r="Z1" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1282,44 +1282,38 @@
       <c r="M2">
         <v>0.22134909999999999</v>
       </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="O2" t="s">
         <v>29</v>
       </c>
-      <c r="Q2">
+      <c r="P2">
         <v>0.218223</v>
       </c>
-      <c r="R2" t="s">
+      <c r="Q2" t="s">
         <v>190</v>
       </c>
-      <c r="S2">
+      <c r="R2">
         <v>0.21362529999999999</v>
       </c>
+      <c r="T2" t="s">
+        <v>235</v>
+      </c>
       <c r="U2">
-        <v>1</v>
+        <v>0.2446035</v>
       </c>
       <c r="V2" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="W2">
-        <v>0.2446035</v>
+        <v>0.20869770000000001</v>
       </c>
       <c r="X2" t="s">
-        <v>258</v>
+        <v>71</v>
       </c>
       <c r="Y2">
-        <v>0.20869770000000001</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA2">
         <v>0.20978840000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1359,44 +1353,38 @@
       <c r="M3">
         <v>0.20150899999999999</v>
       </c>
-      <c r="O3">
-        <v>2</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="O3" t="s">
         <v>174</v>
       </c>
-      <c r="Q3">
+      <c r="P3">
         <v>0.21284130000000001</v>
       </c>
-      <c r="R3" t="s">
+      <c r="Q3" t="s">
         <v>199</v>
       </c>
-      <c r="S3">
+      <c r="R3">
         <v>0.2111296</v>
       </c>
+      <c r="T3" t="s">
+        <v>236</v>
+      </c>
       <c r="U3">
-        <v>2</v>
+        <v>0.21196619999999999</v>
       </c>
       <c r="V3" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="W3">
-        <v>0.21196619999999999</v>
+        <v>0.18877140000000001</v>
       </c>
       <c r="X3" t="s">
-        <v>259</v>
+        <v>14</v>
       </c>
       <c r="Y3">
-        <v>0.18877140000000001</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA3">
         <v>0.20972940000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1436,44 +1424,38 @@
       <c r="M4">
         <v>0.1974504</v>
       </c>
-      <c r="O4">
-        <v>3</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="O4" t="s">
         <v>72</v>
       </c>
-      <c r="Q4">
+      <c r="P4">
         <v>0.20545040000000001</v>
       </c>
-      <c r="R4" t="s">
+      <c r="Q4" t="s">
         <v>200</v>
       </c>
-      <c r="S4">
+      <c r="R4">
         <v>0.19910620000000001</v>
       </c>
+      <c r="T4" t="s">
+        <v>237</v>
+      </c>
       <c r="U4">
-        <v>3</v>
+        <v>0.20791299999999999</v>
       </c>
       <c r="V4" t="s">
-        <v>237</v>
+        <v>111</v>
       </c>
       <c r="W4">
-        <v>0.20791299999999999</v>
+        <v>0.18221000000000001</v>
       </c>
       <c r="X4" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="Y4">
-        <v>0.18221000000000001</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA4">
         <v>0.20847889999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1513,44 +1495,38 @@
       <c r="M5">
         <v>0.18737960000000001</v>
       </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="O5" t="s">
         <v>175</v>
       </c>
-      <c r="Q5">
+      <c r="P5">
         <v>0.20227690000000001</v>
       </c>
-      <c r="R5" t="s">
+      <c r="Q5" t="s">
         <v>80</v>
       </c>
-      <c r="S5">
+      <c r="R5">
         <v>0.18529100000000001</v>
       </c>
+      <c r="T5" t="s">
+        <v>238</v>
+      </c>
       <c r="U5">
-        <v>4</v>
+        <v>0.20450370000000001</v>
       </c>
       <c r="V5" t="s">
-        <v>238</v>
+        <v>108</v>
       </c>
       <c r="W5">
-        <v>0.20450370000000001</v>
+        <v>0.1820968</v>
       </c>
       <c r="X5" t="s">
-        <v>108</v>
+        <v>220</v>
       </c>
       <c r="Y5">
-        <v>0.1820968</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>220</v>
-      </c>
-      <c r="AA5">
         <v>0.20610600000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1590,44 +1566,38 @@
       <c r="M6">
         <v>0.1828584</v>
       </c>
-      <c r="O6">
-        <v>5</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="O6" t="s">
         <v>15</v>
       </c>
-      <c r="Q6">
+      <c r="P6">
         <v>0.19969890000000001</v>
       </c>
-      <c r="R6" t="s">
+      <c r="Q6" t="s">
         <v>201</v>
       </c>
-      <c r="S6">
+      <c r="R6">
         <v>0.18337290000000001</v>
       </c>
+      <c r="T6" t="s">
+        <v>239</v>
+      </c>
       <c r="U6">
-        <v>5</v>
+        <v>0.1961898</v>
       </c>
       <c r="V6" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="W6">
-        <v>0.1961898</v>
+        <v>0.1788245</v>
       </c>
       <c r="X6" t="s">
-        <v>260</v>
+        <v>174</v>
       </c>
       <c r="Y6">
-        <v>0.1788245</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>174</v>
-      </c>
-      <c r="AA6">
         <v>0.19743659999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1667,44 +1637,38 @@
       <c r="M7">
         <v>0.1826062</v>
       </c>
-      <c r="O7">
-        <v>6</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="O7" t="s">
         <v>176</v>
       </c>
-      <c r="Q7">
+      <c r="P7">
         <v>0.19055810000000001</v>
       </c>
-      <c r="R7" t="s">
+      <c r="Q7" t="s">
         <v>193</v>
       </c>
-      <c r="S7">
+      <c r="R7">
         <v>0.1815455</v>
       </c>
+      <c r="T7" t="s">
+        <v>52</v>
+      </c>
       <c r="U7">
-        <v>6</v>
+        <v>0.19315060000000001</v>
       </c>
       <c r="V7" t="s">
-        <v>52</v>
+        <v>215</v>
       </c>
       <c r="W7">
-        <v>0.19315060000000001</v>
+        <v>0.1757099</v>
       </c>
       <c r="X7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Y7">
-        <v>0.1757099</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>221</v>
-      </c>
-      <c r="AA7">
         <v>0.19273090000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1744,44 +1708,38 @@
       <c r="M8">
         <v>0.180451</v>
       </c>
-      <c r="O8">
-        <v>7</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="O8" t="s">
         <v>177</v>
       </c>
-      <c r="Q8">
+      <c r="P8">
         <v>0.18292149999999999</v>
       </c>
-      <c r="R8" t="s">
+      <c r="Q8" t="s">
         <v>177</v>
       </c>
-      <c r="S8">
+      <c r="R8">
         <v>0.17782300000000001</v>
       </c>
+      <c r="T8" t="s">
+        <v>240</v>
+      </c>
       <c r="U8">
-        <v>7</v>
+        <v>0.19143959999999999</v>
       </c>
       <c r="V8" t="s">
-        <v>240</v>
+        <v>123</v>
       </c>
       <c r="W8">
-        <v>0.19143959999999999</v>
+        <v>0.1715034</v>
       </c>
       <c r="X8" t="s">
-        <v>123</v>
+        <v>222</v>
       </c>
       <c r="Y8">
-        <v>0.1715034</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>222</v>
-      </c>
-      <c r="AA8">
         <v>0.18827720000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1821,44 +1779,38 @@
       <c r="M9">
         <v>0.17724280000000001</v>
       </c>
-      <c r="O9">
-        <v>8</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="O9" t="s">
         <v>178</v>
       </c>
-      <c r="Q9">
+      <c r="P9">
         <v>0.18224789999999999</v>
       </c>
-      <c r="R9" t="s">
+      <c r="Q9" t="s">
         <v>202</v>
       </c>
-      <c r="S9">
+      <c r="R9">
         <v>0.17632390000000001</v>
       </c>
+      <c r="T9" t="s">
+        <v>241</v>
+      </c>
       <c r="U9">
-        <v>8</v>
+        <v>0.1911052</v>
       </c>
       <c r="V9" t="s">
-        <v>241</v>
+        <v>119</v>
       </c>
       <c r="W9">
-        <v>0.1911052</v>
+        <v>0.17022570000000001</v>
       </c>
       <c r="X9" t="s">
-        <v>119</v>
+        <v>223</v>
       </c>
       <c r="Y9">
-        <v>0.17022570000000001</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA9">
         <v>0.1876121</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1898,44 +1850,38 @@
       <c r="M10">
         <v>0.1731268</v>
       </c>
-      <c r="O10">
-        <v>9</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="O10" t="s">
         <v>179</v>
       </c>
-      <c r="Q10">
+      <c r="P10">
         <v>0.18168909999999999</v>
       </c>
-      <c r="R10" t="s">
+      <c r="Q10" t="s">
         <v>203</v>
       </c>
-      <c r="S10">
+      <c r="R10">
         <v>0.1762157</v>
       </c>
+      <c r="T10" t="s">
+        <v>242</v>
+      </c>
       <c r="U10">
-        <v>9</v>
+        <v>0.19030169999999999</v>
       </c>
       <c r="V10" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="W10">
-        <v>0.19030169999999999</v>
+        <v>0.1688297</v>
       </c>
       <c r="X10" t="s">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="Y10">
-        <v>0.1688297</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA10">
         <v>0.1867394</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1975,44 +1921,38 @@
       <c r="M11">
         <v>0.17075399999999999</v>
       </c>
-      <c r="O11">
-        <v>10</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="O11" t="s">
         <v>180</v>
       </c>
-      <c r="Q11">
+      <c r="P11">
         <v>0.17846480000000001</v>
       </c>
-      <c r="R11" t="s">
+      <c r="Q11" t="s">
         <v>204</v>
       </c>
-      <c r="S11">
+      <c r="R11">
         <v>0.17581769999999999</v>
       </c>
+      <c r="T11" t="s">
+        <v>34</v>
+      </c>
       <c r="U11">
-        <v>10</v>
+        <v>0.189717</v>
       </c>
       <c r="V11" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="W11">
-        <v>0.189717</v>
+        <v>0.1675297</v>
       </c>
       <c r="X11" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="Y11">
-        <v>0.1675297</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA11">
         <v>0.18444070000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2052,44 +1992,38 @@
       <c r="M12">
         <v>0.1645171</v>
       </c>
-      <c r="O12">
-        <v>11</v>
-      </c>
-      <c r="P12" t="s">
+      <c r="O12" t="s">
         <v>181</v>
       </c>
-      <c r="Q12">
+      <c r="P12">
         <v>0.1770765</v>
       </c>
-      <c r="R12" t="s">
+      <c r="Q12" t="s">
         <v>205</v>
       </c>
-      <c r="S12">
+      <c r="R12">
         <v>0.1757367</v>
       </c>
+      <c r="T12" t="s">
+        <v>243</v>
+      </c>
       <c r="U12">
-        <v>11</v>
+        <v>0.18859999999999999</v>
       </c>
       <c r="V12" t="s">
-        <v>243</v>
+        <v>58</v>
       </c>
       <c r="W12">
-        <v>0.18859999999999999</v>
+        <v>0.1673038</v>
       </c>
       <c r="X12" t="s">
-        <v>58</v>
+        <v>224</v>
       </c>
       <c r="Y12">
-        <v>0.1673038</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>224</v>
-      </c>
-      <c r="AA12">
         <v>0.17519699999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2129,44 +2063,38 @@
       <c r="M13">
         <v>0.16096150000000001</v>
       </c>
-      <c r="O13">
-        <v>12</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="O13" t="s">
         <v>182</v>
       </c>
-      <c r="Q13">
+      <c r="P13">
         <v>0.1764135</v>
       </c>
-      <c r="R13" t="s">
+      <c r="Q13" t="s">
         <v>206</v>
       </c>
-      <c r="S13">
+      <c r="R13">
         <v>0.16875409999999999</v>
       </c>
+      <c r="T13" t="s">
+        <v>244</v>
+      </c>
       <c r="U13">
-        <v>12</v>
+        <v>0.1876089</v>
       </c>
       <c r="V13" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="W13">
-        <v>0.1876089</v>
+        <v>0.1670527</v>
       </c>
       <c r="X13" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="Y13">
-        <v>0.1670527</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA13">
         <v>0.1720613</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2206,44 +2134,38 @@
       <c r="M14">
         <v>0.16083610000000001</v>
       </c>
-      <c r="O14">
-        <v>13</v>
-      </c>
-      <c r="P14" t="s">
+      <c r="O14" t="s">
         <v>183</v>
       </c>
-      <c r="Q14">
+      <c r="P14">
         <v>0.1762146</v>
       </c>
-      <c r="R14" t="s">
+      <c r="Q14" t="s">
         <v>37</v>
       </c>
-      <c r="S14">
+      <c r="R14">
         <v>0.16806080000000001</v>
       </c>
+      <c r="T14" t="s">
+        <v>168</v>
+      </c>
       <c r="U14">
-        <v>13</v>
+        <v>0.1819915</v>
       </c>
       <c r="V14" t="s">
-        <v>168</v>
+        <v>263</v>
       </c>
       <c r="W14">
-        <v>0.1819915</v>
+        <v>0.16565379999999999</v>
       </c>
       <c r="X14" t="s">
-        <v>263</v>
+        <v>188</v>
       </c>
       <c r="Y14">
-        <v>0.16565379999999999</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA14">
         <v>0.1715942</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2283,44 +2205,38 @@
       <c r="M15">
         <v>0.15987689999999999</v>
       </c>
-      <c r="O15">
-        <v>14</v>
-      </c>
-      <c r="P15" t="s">
+      <c r="O15" t="s">
         <v>184</v>
       </c>
-      <c r="Q15">
+      <c r="P15">
         <v>0.17615459999999999</v>
       </c>
-      <c r="R15" t="s">
+      <c r="Q15" t="s">
         <v>207</v>
       </c>
-      <c r="S15">
+      <c r="R15">
         <v>0.1669108</v>
       </c>
+      <c r="T15" t="s">
+        <v>245</v>
+      </c>
       <c r="U15">
-        <v>14</v>
+        <v>0.17435880000000001</v>
       </c>
       <c r="V15" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="W15">
-        <v>0.17435880000000001</v>
+        <v>0.16308590000000001</v>
       </c>
       <c r="X15" t="s">
-        <v>264</v>
+        <v>64</v>
       </c>
       <c r="Y15">
-        <v>0.16308590000000001</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA15">
         <v>0.17122039999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2360,44 +2276,38 @@
       <c r="M16">
         <v>0.1575744</v>
       </c>
-      <c r="O16">
-        <v>15</v>
-      </c>
-      <c r="P16" t="s">
+      <c r="O16" t="s">
         <v>185</v>
       </c>
-      <c r="Q16">
+      <c r="P16">
         <v>0.1755265</v>
       </c>
-      <c r="R16" t="s">
+      <c r="Q16" t="s">
         <v>208</v>
       </c>
-      <c r="S16">
+      <c r="R16">
         <v>0.16613330000000001</v>
       </c>
+      <c r="T16" t="s">
+        <v>42</v>
+      </c>
       <c r="U16">
-        <v>15</v>
+        <v>0.17281959999999999</v>
       </c>
       <c r="V16" t="s">
-        <v>42</v>
+        <v>265</v>
       </c>
       <c r="W16">
-        <v>0.17281959999999999</v>
+        <v>0.16166079999999999</v>
       </c>
       <c r="X16" t="s">
-        <v>265</v>
+        <v>29</v>
       </c>
       <c r="Y16">
-        <v>0.16166079999999999</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA16">
         <v>0.1668123</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2437,44 +2347,38 @@
       <c r="M17">
         <v>0.15376719999999999</v>
       </c>
-      <c r="O17">
-        <v>16</v>
-      </c>
-      <c r="P17" t="s">
+      <c r="O17" t="s">
         <v>92</v>
       </c>
-      <c r="Q17">
+      <c r="P17">
         <v>0.17287269999999999</v>
       </c>
-      <c r="R17" t="s">
+      <c r="Q17" t="s">
         <v>209</v>
       </c>
-      <c r="S17">
+      <c r="R17">
         <v>0.16281909999999999</v>
       </c>
+      <c r="T17" t="s">
+        <v>204</v>
+      </c>
       <c r="U17">
-        <v>16</v>
+        <v>0.17162769999999999</v>
       </c>
       <c r="V17" t="s">
-        <v>204</v>
+        <v>266</v>
       </c>
       <c r="W17">
-        <v>0.17162769999999999</v>
+        <v>0.15950710000000001</v>
       </c>
       <c r="X17" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="Y17">
-        <v>0.15950710000000001</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>226</v>
-      </c>
-      <c r="AA17">
         <v>0.1634882</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2514,44 +2418,38 @@
       <c r="M18">
         <v>0.15317610000000001</v>
       </c>
-      <c r="O18">
-        <v>17</v>
-      </c>
-      <c r="P18" t="s">
+      <c r="O18" t="s">
         <v>186</v>
       </c>
-      <c r="Q18">
+      <c r="P18">
         <v>0.17217299999999999</v>
       </c>
-      <c r="R18" t="s">
+      <c r="Q18" t="s">
         <v>140</v>
       </c>
-      <c r="S18">
+      <c r="R18">
         <v>0.16277900000000001</v>
       </c>
+      <c r="T18" t="s">
+        <v>54</v>
+      </c>
       <c r="U18">
-        <v>17</v>
+        <v>0.170074</v>
       </c>
       <c r="V18" t="s">
-        <v>54</v>
+        <v>267</v>
       </c>
       <c r="W18">
-        <v>0.170074</v>
+        <v>0.1593888</v>
       </c>
       <c r="X18" t="s">
-        <v>267</v>
+        <v>27</v>
       </c>
       <c r="Y18">
-        <v>0.1593888</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA18">
         <v>0.1632874</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2591,44 +2489,38 @@
       <c r="M19">
         <v>0.15247810000000001</v>
       </c>
-      <c r="O19">
-        <v>18</v>
-      </c>
-      <c r="P19" t="s">
+      <c r="O19" t="s">
         <v>187</v>
       </c>
-      <c r="Q19">
+      <c r="P19">
         <v>0.169158</v>
       </c>
-      <c r="R19" t="s">
+      <c r="Q19" t="s">
         <v>210</v>
       </c>
-      <c r="S19">
+      <c r="R19">
         <v>0.16220180000000001</v>
       </c>
+      <c r="T19" t="s">
+        <v>246</v>
+      </c>
       <c r="U19">
-        <v>18</v>
+        <v>0.16817029999999999</v>
       </c>
       <c r="V19" t="s">
-        <v>246</v>
+        <v>92</v>
       </c>
       <c r="W19">
-        <v>0.16817029999999999</v>
+        <v>0.15891859999999999</v>
       </c>
       <c r="X19" t="s">
-        <v>92</v>
+        <v>227</v>
       </c>
       <c r="Y19">
-        <v>0.15891859999999999</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>227</v>
-      </c>
-      <c r="AA19">
         <v>0.15850719999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2668,44 +2560,38 @@
       <c r="M20">
         <v>0.15105679999999999</v>
       </c>
-      <c r="O20">
-        <v>19</v>
-      </c>
-      <c r="P20" t="s">
+      <c r="O20" t="s">
         <v>188</v>
       </c>
-      <c r="Q20">
+      <c r="P20">
         <v>0.16765749999999999</v>
       </c>
-      <c r="R20" t="s">
+      <c r="Q20" t="s">
         <v>211</v>
       </c>
-      <c r="S20">
+      <c r="R20">
         <v>0.16204489999999999</v>
       </c>
+      <c r="T20" t="s">
+        <v>247</v>
+      </c>
       <c r="U20">
-        <v>19</v>
+        <v>0.16781750000000001</v>
       </c>
       <c r="V20" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="W20">
-        <v>0.16781750000000001</v>
+        <v>0.15765129999999999</v>
       </c>
       <c r="X20" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="Y20">
-        <v>0.15765129999999999</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA20">
         <v>0.15725910000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2745,44 +2631,38 @@
       <c r="M21">
         <v>0.15095990000000001</v>
       </c>
-      <c r="O21">
-        <v>20</v>
-      </c>
-      <c r="P21" t="s">
+      <c r="O21" t="s">
         <v>189</v>
       </c>
-      <c r="Q21">
+      <c r="P21">
         <v>0.16727429999999999</v>
       </c>
-      <c r="R21" t="s">
+      <c r="Q21" t="s">
         <v>212</v>
       </c>
-      <c r="S21">
+      <c r="R21">
         <v>0.16077939999999999</v>
       </c>
+      <c r="T21" t="s">
+        <v>153</v>
+      </c>
       <c r="U21">
-        <v>20</v>
+        <v>0.16595889999999999</v>
       </c>
       <c r="V21" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="W21">
-        <v>0.16595889999999999</v>
+        <v>0.1551506</v>
       </c>
       <c r="X21" t="s">
-        <v>97</v>
+        <v>229</v>
       </c>
       <c r="Y21">
-        <v>0.1551506</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA21">
         <v>0.15609919999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2822,44 +2702,38 @@
       <c r="M22">
         <v>0.1507145</v>
       </c>
-      <c r="O22">
-        <v>21</v>
-      </c>
-      <c r="P22" t="s">
+      <c r="O22" t="s">
         <v>17</v>
       </c>
-      <c r="Q22">
+      <c r="P22">
         <v>0.16707159999999999</v>
       </c>
-      <c r="R22" t="s">
+      <c r="Q22" t="s">
         <v>14</v>
       </c>
-      <c r="S22">
+      <c r="R22">
         <v>0.1603253</v>
       </c>
+      <c r="T22" t="s">
+        <v>248</v>
+      </c>
       <c r="U22">
-        <v>21</v>
+        <v>0.16571930000000001</v>
       </c>
       <c r="V22" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="W22">
-        <v>0.16571930000000001</v>
+        <v>0.15331230000000001</v>
       </c>
       <c r="X22" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="Y22">
-        <v>0.15331230000000001</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>230</v>
-      </c>
-      <c r="AA22">
         <v>0.15263979999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2899,44 +2773,38 @@
       <c r="M23">
         <v>0.1503881</v>
       </c>
-      <c r="O23">
-        <v>22</v>
-      </c>
-      <c r="P23" t="s">
+      <c r="O23" t="s">
         <v>190</v>
       </c>
-      <c r="Q23">
+      <c r="P23">
         <v>0.165935</v>
       </c>
-      <c r="R23" t="s">
+      <c r="Q23" t="s">
         <v>213</v>
       </c>
-      <c r="S23">
+      <c r="R23">
         <v>0.1601525</v>
       </c>
+      <c r="T23" t="s">
+        <v>249</v>
+      </c>
       <c r="U23">
-        <v>22</v>
+        <v>0.16513600000000001</v>
       </c>
       <c r="V23" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="W23">
-        <v>0.16513600000000001</v>
+        <v>0.1530135</v>
       </c>
       <c r="X23" t="s">
-        <v>270</v>
+        <v>197</v>
       </c>
       <c r="Y23">
-        <v>0.1530135</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA23">
         <v>0.15262229999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2976,44 +2844,38 @@
       <c r="M24">
         <v>0.15025959999999999</v>
       </c>
-      <c r="O24">
-        <v>23</v>
-      </c>
-      <c r="P24" t="s">
+      <c r="O24" t="s">
         <v>191</v>
       </c>
-      <c r="Q24">
+      <c r="P24">
         <v>0.163719</v>
       </c>
-      <c r="R24" t="s">
+      <c r="Q24" t="s">
         <v>214</v>
       </c>
-      <c r="S24">
+      <c r="R24">
         <v>0.15940260000000001</v>
       </c>
+      <c r="T24" t="s">
+        <v>250</v>
+      </c>
       <c r="U24">
-        <v>23</v>
+        <v>0.1623716</v>
       </c>
       <c r="V24" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="W24">
-        <v>0.1623716</v>
+        <v>0.15114169999999999</v>
       </c>
       <c r="X24" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="Y24">
-        <v>0.15114169999999999</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>231</v>
-      </c>
-      <c r="AA24">
         <v>0.15231939999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3053,44 +2915,38 @@
       <c r="M25">
         <v>0.14956729999999999</v>
       </c>
-      <c r="O25">
-        <v>24</v>
-      </c>
-      <c r="P25" t="s">
+      <c r="O25" t="s">
         <v>192</v>
       </c>
-      <c r="Q25">
+      <c r="P25">
         <v>0.16309699999999999</v>
       </c>
-      <c r="R25" t="s">
+      <c r="Q25" t="s">
         <v>179</v>
       </c>
-      <c r="S25">
+      <c r="R25">
         <v>0.158106</v>
       </c>
+      <c r="T25" t="s">
+        <v>251</v>
+      </c>
       <c r="U25">
-        <v>24</v>
+        <v>0.16205030000000001</v>
       </c>
       <c r="V25" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="W25">
-        <v>0.16205030000000001</v>
+        <v>0.1492832</v>
       </c>
       <c r="X25" t="s">
-        <v>272</v>
+        <v>170</v>
       </c>
       <c r="Y25">
-        <v>0.1492832</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA25">
         <v>0.15046000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3130,44 +2986,38 @@
       <c r="M26">
         <v>0.1486056</v>
       </c>
-      <c r="O26">
-        <v>25</v>
-      </c>
-      <c r="P26" t="s">
+      <c r="O26" t="s">
         <v>193</v>
       </c>
-      <c r="Q26">
+      <c r="P26">
         <v>0.16209689999999999</v>
       </c>
-      <c r="R26" t="s">
+      <c r="Q26" t="s">
         <v>215</v>
       </c>
-      <c r="S26">
+      <c r="R26">
         <v>0.1579873</v>
       </c>
+      <c r="T26" t="s">
+        <v>252</v>
+      </c>
       <c r="U26">
-        <v>25</v>
+        <v>0.16127</v>
       </c>
       <c r="V26" t="s">
-        <v>252</v>
+        <v>133</v>
       </c>
       <c r="W26">
-        <v>0.16127</v>
+        <v>0.1490842</v>
       </c>
       <c r="X26" t="s">
-        <v>133</v>
+        <v>232</v>
       </c>
       <c r="Y26">
-        <v>0.1490842</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>232</v>
-      </c>
-      <c r="AA26">
         <v>0.1493602</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3207,44 +3057,38 @@
       <c r="M27">
         <v>0.14575630000000001</v>
       </c>
-      <c r="O27">
-        <v>26</v>
-      </c>
-      <c r="P27" t="s">
+      <c r="O27" t="s">
         <v>194</v>
       </c>
-      <c r="Q27">
+      <c r="P27">
         <v>0.16020980000000001</v>
       </c>
-      <c r="R27" t="s">
+      <c r="Q27" t="s">
         <v>216</v>
       </c>
-      <c r="S27">
+      <c r="R27">
         <v>0.15575849999999999</v>
       </c>
+      <c r="T27" t="s">
+        <v>253</v>
+      </c>
       <c r="U27">
-        <v>26</v>
+        <v>0.16005520000000001</v>
       </c>
       <c r="V27" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="W27">
-        <v>0.16005520000000001</v>
+        <v>0.14903140000000001</v>
       </c>
       <c r="X27" t="s">
-        <v>273</v>
+        <v>199</v>
       </c>
       <c r="Y27">
-        <v>0.14903140000000001</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA27">
         <v>0.14915500000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3284,44 +3128,38 @@
       <c r="M28">
         <v>0.14491480000000001</v>
       </c>
-      <c r="O28">
-        <v>27</v>
-      </c>
-      <c r="P28" t="s">
+      <c r="O28" t="s">
         <v>195</v>
       </c>
-      <c r="Q28">
+      <c r="P28">
         <v>0.1600481</v>
       </c>
-      <c r="R28" t="s">
+      <c r="Q28" t="s">
         <v>195</v>
       </c>
-      <c r="S28">
+      <c r="R28">
         <v>0.15538859999999999</v>
       </c>
+      <c r="T28" t="s">
+        <v>254</v>
+      </c>
       <c r="U28">
-        <v>27</v>
+        <v>0.1559333</v>
       </c>
       <c r="V28" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="W28">
-        <v>0.1559333</v>
+        <v>0.14896989999999999</v>
       </c>
       <c r="X28" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="Y28">
-        <v>0.14896989999999999</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA28">
         <v>0.14900379999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3361,44 +3199,38 @@
       <c r="M29">
         <v>0.1440979</v>
       </c>
-      <c r="O29">
-        <v>28</v>
-      </c>
-      <c r="P29" t="s">
+      <c r="O29" t="s">
         <v>196</v>
       </c>
-      <c r="Q29">
+      <c r="P29">
         <v>0.1588666</v>
       </c>
-      <c r="R29" t="s">
+      <c r="Q29" t="s">
         <v>217</v>
       </c>
-      <c r="S29">
+      <c r="R29">
         <v>0.15500449999999999</v>
       </c>
+      <c r="T29" t="s">
+        <v>255</v>
+      </c>
       <c r="U29">
-        <v>28</v>
+        <v>0.15536179999999999</v>
       </c>
       <c r="V29" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="W29">
-        <v>0.15536179999999999</v>
+        <v>0.1481932</v>
       </c>
       <c r="X29" t="s">
-        <v>275</v>
+        <v>193</v>
       </c>
       <c r="Y29">
-        <v>0.1481932</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>193</v>
-      </c>
-      <c r="AA29">
         <v>0.14721529999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3438,44 +3270,38 @@
       <c r="M30">
         <v>0.141846</v>
       </c>
-      <c r="O30">
-        <v>29</v>
-      </c>
-      <c r="P30" t="s">
+      <c r="O30" t="s">
         <v>197</v>
       </c>
-      <c r="Q30">
+      <c r="P30">
         <v>0.15847330000000001</v>
       </c>
-      <c r="R30" t="s">
+      <c r="Q30" t="s">
         <v>218</v>
       </c>
-      <c r="S30">
+      <c r="R30">
         <v>0.1544122</v>
       </c>
+      <c r="T30" t="s">
+        <v>256</v>
+      </c>
       <c r="U30">
-        <v>29</v>
+        <v>0.1553388</v>
       </c>
       <c r="V30" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="W30">
-        <v>0.1553388</v>
+        <v>0.1466172</v>
       </c>
       <c r="X30" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="Y30">
-        <v>0.1466172</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>234</v>
-      </c>
-      <c r="AA30">
         <v>0.14518130000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3515,55 +3341,49 @@
       <c r="M31">
         <v>0.14117360000000001</v>
       </c>
-      <c r="O31">
-        <v>30</v>
-      </c>
-      <c r="P31" t="s">
+      <c r="O31" t="s">
         <v>198</v>
       </c>
-      <c r="Q31">
+      <c r="P31">
         <v>0.15612860000000001</v>
       </c>
-      <c r="R31" t="s">
+      <c r="Q31" t="s">
         <v>219</v>
       </c>
-      <c r="S31">
+      <c r="R31">
         <v>0.15352150000000001</v>
       </c>
+      <c r="T31" t="s">
+        <v>257</v>
+      </c>
       <c r="U31">
-        <v>30</v>
+        <v>0.1547055</v>
       </c>
       <c r="V31" t="s">
-        <v>257</v>
+        <v>191</v>
       </c>
       <c r="W31">
-        <v>0.1547055</v>
+        <v>0.1458642</v>
       </c>
       <c r="X31" t="s">
-        <v>191</v>
+        <v>5</v>
       </c>
       <c r="Y31">
-        <v>0.1458642</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA31">
         <v>0.1450978</v>
       </c>
     </row>
-    <row r="40" spans="28:28" x14ac:dyDescent="0.3">
-      <c r="AB40" t="s">
+    <row r="40" spans="26:26" x14ac:dyDescent="0.3">
+      <c r="Z40" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="28:28" x14ac:dyDescent="0.3">
-      <c r="AB72" t="s">
+    <row r="72" spans="26:26" x14ac:dyDescent="0.3">
+      <c r="Z72" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="28:28" x14ac:dyDescent="0.3">
-      <c r="AB104" t="s">
+    <row r="104" spans="26:26" x14ac:dyDescent="0.3">
+      <c r="Z104" t="s">
         <v>31</v>
       </c>
     </row>
